--- a/data/trans_dic/P04D$individual-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P04D$individual-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,49; 22,95</t>
+          <t>17,82; 23,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,22; 19,89</t>
+          <t>14,21; 19,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,96; 15,6</t>
+          <t>10,02; 15,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,5; 22,98</t>
+          <t>18,49; 22,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,58; 23,99</t>
+          <t>18,12; 23,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,15; 11,57</t>
+          <t>8,2; 11,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,86; 22,37</t>
+          <t>18,75; 22,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,37; 21,3</t>
+          <t>17,12; 21,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,51; 12,49</t>
+          <t>9,52; 12,74</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,23; 33,5</t>
+          <t>29,02; 33,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,77; 32,89</t>
+          <t>28,6; 32,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,77; 48,89</t>
+          <t>16,56; 49,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,97; 33,26</t>
+          <t>28,83; 33,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,01; 36,43</t>
+          <t>31,85; 36,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,18; 16,57</t>
+          <t>10,36; 16,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,76; 32,84</t>
+          <t>29,63; 32,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,88; 33,8</t>
+          <t>30,87; 33,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,05; 34,08</t>
+          <t>15,26; 34,1</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,08; 47,59</t>
+          <t>38,55; 48,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,34; 41,33</t>
+          <t>32,32; 41,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,25; 29,56</t>
+          <t>22,15; 29,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>35,22; 45,07</t>
+          <t>35,66; 45,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,65; 42,16</t>
+          <t>33,66; 42,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,55; 29,42</t>
+          <t>23,34; 29,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>38,59; 45,26</t>
+          <t>38,33; 45,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,39; 40,57</t>
+          <t>34,33; 40,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,71; 28,5</t>
+          <t>23,42; 28,07</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,01; 31,37</t>
+          <t>28,1; 31,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,04; 30,11</t>
+          <t>26,94; 30,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,69; 41,27</t>
+          <t>17,77; 43,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,68; 29,81</t>
+          <t>26,79; 29,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,38; 32,52</t>
+          <t>29,35; 32,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,61; 17,04</t>
+          <t>12,56; 17,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,82; 30,09</t>
+          <t>27,87; 30,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,71; 31,02</t>
+          <t>28,77; 31,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,35; 31,94</t>
+          <t>16,43; 30,88</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, tiene calefacción individual en su vivienda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>196833</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>126746</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>64236</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>275429</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>208064</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>73962</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>472262</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>334810</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>138199</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>173347; 224349</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>107172; 147936</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>51422; 79077</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>247332; 305037</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>180278; 235868</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>61901; 88575</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>433266; 512674</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>299430; 370734</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>120705; 161555</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1096</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1238</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>611874</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>639071</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>600102</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>545880</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>675700</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>318876</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1157755</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1314771</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>918977</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>568356; 651700</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>593809; 678744</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>378599; 1121251</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>505484; 585716</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>633261; 721174</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>231373; 368036</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1100055; 1213110</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1254676; 1370094</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>689545; 1541014</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>206647</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>200509</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>164628</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>184578</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>208139</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>173286</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>391225</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>408648</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>337915</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>185504; 233071</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>176735; 226425</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>143246; 190311</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>163527; 208484</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>184837; 232925</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>153673; 193698</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>360249; 425037</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>376317; 441441</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>305668; 366246</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>913</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>942</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>858</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1892</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1429</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1015354</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>966326</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>828967</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1005887</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1091902</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>566124</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2021242</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2058228</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1395091</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>958811; 1068667</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>909971; 1017363</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>612407; 1512570</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>951011; 1061096</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1036809; 1151319</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>458035; 623472</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1940384; 2110292</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1987661; 2146987</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1165073; 2190176</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>